--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H2">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J2">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.0583296666667</v>
+        <v>2.209083333333334</v>
       </c>
       <c r="N2">
-        <v>675.174989</v>
+        <v>6.62725</v>
       </c>
       <c r="O2">
-        <v>0.9737108605561615</v>
+        <v>0.2666231470852957</v>
       </c>
       <c r="P2">
-        <v>0.9737108605561614</v>
+        <v>0.2666231470852958</v>
       </c>
       <c r="Q2">
-        <v>280.9326609396913</v>
+        <v>3.953152415916667</v>
       </c>
       <c r="R2">
-        <v>2528.393948457222</v>
+        <v>35.57837174325</v>
       </c>
       <c r="S2">
-        <v>0.008484968860374328</v>
+        <v>0.00331821560510276</v>
       </c>
       <c r="T2">
-        <v>0.008484968860374328</v>
+        <v>0.003318215605102761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H3">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J3">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.833416</v>
       </c>
       <c r="O3">
-        <v>0.00264408057200329</v>
+        <v>0.07376078220023909</v>
       </c>
       <c r="P3">
-        <v>0.00264408057200329</v>
+        <v>0.0737607822002391</v>
       </c>
       <c r="Q3">
-        <v>0.7628636188853332</v>
+        <v>1.093632032861333</v>
       </c>
       <c r="R3">
-        <v>6.865772569968</v>
+        <v>9.842688295752</v>
       </c>
       <c r="S3">
-        <v>2.30406604533037E-05</v>
+        <v>0.0009179779820959043</v>
       </c>
       <c r="T3">
-        <v>2.30406604533037E-05</v>
+        <v>0.0009179779820959044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.248266</v>
+        <v>1.789499</v>
       </c>
       <c r="H4">
-        <v>3.744798</v>
+        <v>5.368497</v>
       </c>
       <c r="I4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="J4">
-        <v>0.008714053836811378</v>
+        <v>0.01244533957901722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.395578</v>
       </c>
       <c r="O4">
-        <v>0.02364505887183518</v>
+        <v>0.659616070714465</v>
       </c>
       <c r="P4">
-        <v>0.02364505887183518</v>
+        <v>0.6596160707144652</v>
       </c>
       <c r="Q4">
-        <v>6.822014189249333</v>
+        <v>9.779956811807333</v>
       </c>
       <c r="R4">
-        <v>61.398127703244</v>
+        <v>88.019611306266</v>
       </c>
       <c r="S4">
-        <v>0.0002060443159837463</v>
+        <v>0.008209145991818552</v>
       </c>
       <c r="T4">
-        <v>0.0002060443159837463</v>
+        <v>0.008209145991818554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>103.907654</v>
       </c>
       <c r="H5">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I5">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J5">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0583296666667</v>
+        <v>2.209083333333334</v>
       </c>
       <c r="N5">
-        <v>675.174989</v>
+        <v>6.62725</v>
       </c>
       <c r="O5">
-        <v>0.9737108605561615</v>
+        <v>0.2666231470852957</v>
       </c>
       <c r="P5">
-        <v>0.9737108605561614</v>
+        <v>0.2666231470852958</v>
       </c>
       <c r="Q5">
-        <v>23385.28304882193</v>
+        <v>229.5406666571667</v>
       </c>
       <c r="R5">
-        <v>210467.5474393974</v>
+        <v>2065.8659999145</v>
       </c>
       <c r="S5">
-        <v>0.7063023494548037</v>
+        <v>0.1926729207406197</v>
       </c>
       <c r="T5">
-        <v>0.7063023494548035</v>
+        <v>0.1926729207406198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>103.907654</v>
       </c>
       <c r="H6">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I6">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J6">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.833416</v>
       </c>
       <c r="O6">
-        <v>0.00264408057200329</v>
+        <v>0.07376078220023909</v>
       </c>
       <c r="P6">
-        <v>0.00264408057200329</v>
+        <v>0.0737607822002391</v>
       </c>
       <c r="Q6">
         <v>63.50198512202132</v>
@@ -818,10 +818,10 @@
         <v>571.5178660981919</v>
       </c>
       <c r="S6">
-        <v>0.001917941347688204</v>
+        <v>0.05330259393452548</v>
       </c>
       <c r="T6">
-        <v>0.001917941347688204</v>
+        <v>0.0533025939345255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>103.907654</v>
       </c>
       <c r="H7">
-        <v>311.7229619999999</v>
+        <v>311.722962</v>
       </c>
       <c r="I7">
-        <v>0.7253717484997342</v>
+        <v>0.7226413867171911</v>
       </c>
       <c r="J7">
-        <v>0.7253717484997341</v>
+        <v>0.7226413867171912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>16.395578</v>
       </c>
       <c r="O7">
-        <v>0.02364505887183518</v>
+        <v>0.659616070714465</v>
       </c>
       <c r="P7">
-        <v>0.02364505887183518</v>
+        <v>0.6596160707144652</v>
       </c>
       <c r="Q7">
         <v>567.8753486513373</v>
       </c>
       <c r="R7">
-        <v>5110.878137862035</v>
+        <v>5110.878137862036</v>
       </c>
       <c r="S7">
-        <v>0.01715145769724224</v>
+        <v>0.4766658720420458</v>
       </c>
       <c r="T7">
-        <v>0.01715145769724223</v>
+        <v>0.476665872042046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>114.274593</v>
       </c>
       <c r="I8">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J8">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>225.0583296666667</v>
+        <v>2.209083333333334</v>
       </c>
       <c r="N8">
-        <v>675.174989</v>
+        <v>6.62725</v>
       </c>
       <c r="O8">
-        <v>0.9737108605561615</v>
+        <v>0.2666231470852957</v>
       </c>
       <c r="P8">
-        <v>0.9737108605561614</v>
+        <v>0.2666231470852958</v>
       </c>
       <c r="Q8">
-        <v>8572.816341306054</v>
+        <v>84.14736627325</v>
       </c>
       <c r="R8">
-        <v>77155.34707175448</v>
+        <v>757.32629645925</v>
       </c>
       <c r="S8">
-        <v>0.2589235422409835</v>
+        <v>0.07063201073957323</v>
       </c>
       <c r="T8">
-        <v>0.2589235422409834</v>
+        <v>0.07063201073957324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>114.274593</v>
       </c>
       <c r="I9">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J9">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.833416</v>
       </c>
       <c r="O9">
-        <v>0.00264408057200329</v>
+        <v>0.07376078220023909</v>
       </c>
       <c r="P9">
-        <v>0.00264408057200329</v>
+        <v>0.0737607822002391</v>
       </c>
       <c r="Q9">
-        <v>23.279207466632</v>
+        <v>23.27920746663199</v>
       </c>
       <c r="R9">
         <v>209.512867199688</v>
       </c>
       <c r="S9">
-        <v>0.0007030985638617827</v>
+        <v>0.01954021028361769</v>
       </c>
       <c r="T9">
-        <v>0.0007030985638617826</v>
+        <v>0.0195402102836177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>114.274593</v>
       </c>
       <c r="I10">
-        <v>0.2659141976634545</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="J10">
-        <v>0.2659141976634544</v>
+        <v>0.2649132737037916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.395578</v>
       </c>
       <c r="O10">
-        <v>0.02364505887183518</v>
+        <v>0.659616070714465</v>
       </c>
       <c r="P10">
-        <v>0.02364505887183518</v>
+        <v>0.6596160707144652</v>
       </c>
       <c r="Q10">
         <v>208.177555883306</v>
@@ -1066,10 +1066,10 @@
         <v>1873.598002949754</v>
       </c>
       <c r="S10">
-        <v>0.006287556858609198</v>
+        <v>0.1747410526806006</v>
       </c>
       <c r="T10">
-        <v>0.006287556858609196</v>
+        <v>0.1747410526806006</v>
       </c>
     </row>
   </sheetData>
